--- a/yield_prediction/results/graph_descriptors/WLlinear_5/out_of_sample/additive/ranking_test4/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLlinear_5/out_of_sample/additive/ranking_test4/results.xlsx
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6840000000000001</v>
+        <v>0.671</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14.827</v>
+        <v>15.088</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.802</v>
+        <v>0.8080000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.887</v>
+        <v>11.689</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.976</v>
+        <v>0.979</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.217</v>
+        <v>4.01</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>11.84591487715089</v>
+        <v>12.38831968149163</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>9.632763845676557</v>
+        <v>10.56896989429498</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>22.93383960657618</v>
+        <v>22.82468217701778</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3.710671958269192</v>
+        <v>3.553657871146449</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>18.32142943980215</v>
+        <v>18.17606251128142</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>21.642314399894</v>
+        <v>20.85241823392623</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7.091037908045092</v>
+        <v>7.292635125900016</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>32.64468592399589</v>
+        <v>33.32144004867344</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>33.21238215618498</v>
+        <v>32.98058941145063</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>11.68565931498955</v>
+        <v>11.40466031978123</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>13.9590510459905</v>
+        <v>14.04232808338185</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>15.87360739902482</v>
+        <v>15.47111860606122</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>23.32521607564098</v>
+        <v>23.94737053772297</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>17.49283193429822</v>
+        <v>18.55508404081143</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>33.04401886319461</v>
+        <v>34.80072545578366</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>14.42691021504494</v>
+        <v>13.65723967936412</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>23.78537490033986</v>
+        <v>23.40425937999126</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>36.41958793241756</v>
+        <v>35.41654431717611</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>7.314268930387136</v>
+        <v>6.278824316588718</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>15.28060812236091</v>
+        <v>14.19468208041382</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>17.47183696821582</v>
+        <v>17.07725834784247</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1.244744705426793</v>
+        <v>1.717461673191227</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>20.65806531869192</v>
+        <v>20.85892943574417</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>19.47197429903021</v>
+        <v>19.33068237312786</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>22.04046916173736</v>
+        <v>22.44125296011783</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>24.3573941504504</v>
+        <v>24.52025690610549</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>2.002472360432499</v>
+        <v>1.757794259702926</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>29.28201391367499</v>
+        <v>29.48261348560775</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>28.7047514266649</v>
+        <v>28.94506239444475</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>5.338590925492351</v>
+        <v>5.155049555089708</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>35.30730158531779</v>
+        <v>35.62547151261294</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>34.65081715572143</v>
+        <v>35.42400355682851</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>38.08466927903756</v>
+        <v>38.2151575482704</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>40.6943877858243</v>
+        <v>41.85250111266868</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>44.06402725853906</v>
+        <v>45.21081374800988</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>30.06575008089783</v>
+        <v>33.01415001296492</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>39.43331729137964</v>
+        <v>43.27103400532812</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>42.52905624250518</v>
+        <v>43.74210142070645</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>19.47819215436176</v>
+        <v>18.89491853753666</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>35.31232934720316</v>
+        <v>34.19708316134004</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>40.80913301649244</v>
+        <v>40.04317428601853</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>9.162848328987</v>
+        <v>8.637740871972731</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>36.58874268717772</v>
+        <v>34.7232018210424</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>43.71143043284368</v>
+        <v>43.49247344277897</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>54.22569940763546</v>
+        <v>53.55709677235212</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>4.611275097547459</v>
+        <v>5.25621411205908</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>16.39671795633466</v>
+        <v>17.15325599235911</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>21.96207720301598</v>
+        <v>21.72978881058101</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>1.018543204357144</v>
+        <v>0.6618738211266795</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>29.97368514257173</v>
+        <v>30.78129124431221</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>31.10189911551975</v>
+        <v>30.50289566549576</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>7.252799129664176</v>
+        <v>8.334101792765139</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>40.66675272411767</v>
+        <v>43.11490813986228</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>44.28472955814867</v>
+        <v>45.1360299078267</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>44.37073052135781</v>
+        <v>44.92397687960526</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>45.17631301823117</v>
+        <v>46.51577011793658</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>52.07965291945718</v>
+        <v>52.78784085233195</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>15.84496850309705</v>
+        <v>14.32342217837914</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>29.27022522536552</v>
+        <v>30.83218707026626</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>34.75913182083605</v>
+        <v>37.13949853964571</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>12.58772916562184</v>
+        <v>12.78529579225267</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>32.31453435520419</v>
+        <v>31.83781939150975</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>39.14199633857056</v>
+        <v>38.83113326103139</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>6.467105994630362</v>
+        <v>5.389731956033426</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>27.05257316412223</v>
+        <v>26.07339481289131</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>42.91738714447363</v>
+        <v>40.91355638317546</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>4.535292313045172</v>
+        <v>4.679706950879606</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>45.32586111334751</v>
+        <v>44.10391764345087</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>2.588128339816127</v>
+        <v>3.792110159869178</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>9.703059488639454</v>
+        <v>10.89032461747318</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>21.85185251421966</v>
+        <v>22.29724401676092</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>1.859299973895375</v>
+        <v>2.07401248929563</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>25.1219678322364</v>
+        <v>25.45282204867803</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>34.24022131320987</v>
+        <v>34.6112952296767</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>1.995109774636159</v>
+        <v>2.484088787620106</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>37.67548044915245</v>
+        <v>39.70981467879469</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>44.00171480967456</v>
+        <v>45.31395685067282</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>38.80324618393256</v>
+        <v>39.91717146682809</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>41.00587178518398</v>
+        <v>41.84222939776105</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>46.29242406160839</v>
+        <v>48.36730457257016</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>14.63651187197787</v>
+        <v>13.53796106621151</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>23.03231492134887</v>
+        <v>25.25928932675789</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>39.88758051821299</v>
+        <v>39.82488182293969</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>8.677582399562425</v>
+        <v>9.353902431310992</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>27.55885057788462</v>
+        <v>26.75073429286715</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>39.23960333014233</v>
+        <v>38.74723177700171</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>8.288135897406907</v>
+        <v>6.906202834204926</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>27.58036456653269</v>
+        <v>26.28257158643372</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>43.74429763672617</v>
+        <v>42.74222436125429</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>2.766213463326064</v>
+        <v>3.006584353607316</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>39.24385907128169</v>
+        <v>38.58244783547889</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>25.3416422837885</v>
+        <v>24.77637477408133</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>24.11443312170101</v>
+        <v>22.32598611840958</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>42.66527750051425</v>
+        <v>40.78132410122501</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>45.81074955091763</v>
+        <v>44.39062149869591</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>7.256406204033734</v>
+        <v>6.644184762918627</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>17.72531926770546</v>
+        <v>17.8312351180898</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>26.44274193529679</v>
+        <v>26.09308046591763</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>10.97948321869306</v>
+        <v>11.02005423309231</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>20.15594181114031</v>
+        <v>21.07543212951957</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>33.3482421916425</v>
+        <v>32.18147774822111</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>4.36611789874954</v>
+        <v>3.578021342213276</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>12.61614166481279</v>
+        <v>12.634259167771</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>18.81719417844394</v>
+        <v>16.83641050362084</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>0.4078305242636446</v>
+        <v>0.03772454846980722</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>19.31442588075206</v>
+        <v>19.0982784603014</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>35.57645785639647</v>
+        <v>32.40113752967267</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>21.73905821371375</v>
+        <v>21.77184153677577</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>47.12733556784811</v>
+        <v>46.06253855398671</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>53.76633515855823</v>
+        <v>53.06705660451574</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>3.03578968049662</v>
+        <v>3.365184224869633</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>19.07141651443172</v>
+        <v>19.07023403202583</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>28.10604622295007</v>
+        <v>27.07544121627297</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>64.9468944967317</v>
+        <v>62.97495058146696</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>55.08199136235969</v>
+        <v>53.1445584305736</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>68.40541873892762</v>
+        <v>67.74993937578961</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>73.99975683170456</v>
+        <v>71.54217211576189</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>20.03318220846353</v>
+        <v>19.44874589593428</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>64.14697925584919</v>
+        <v>62.32298538329935</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>64.90001334221138</v>
+        <v>63.82151463147862</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>24.47405668397447</v>
+        <v>24.59583484596546</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>40.129478255226</v>
+        <v>40.78095423322806</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>47.0711549642739</v>
+        <v>47.08140291726508</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>10.15925241019715</v>
+        <v>9.539463246960313</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>40.55478012712192</v>
+        <v>38.87007514717536</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>48.79138406616993</v>
+        <v>47.99414397560697</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>9.187517097583399</v>
+        <v>9.309555852704861</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>63.799281492736</v>
+        <v>63.23296124709924</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>73.40236546639279</v>
+        <v>73.3630902227822</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>75.43950281893666</v>
+        <v>72.3454342890002</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>86.37651359171987</v>
+        <v>85.34317929240345</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>91.63131149617855</v>
+        <v>90.40316681309926</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>26.61924685126403</v>
+        <v>26.14972472331228</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>77.89401600930073</v>
+        <v>76.87101792643887</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>80.025524411359</v>
+        <v>79.18873855888529</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>67.75647571735276</v>
+        <v>66.10616151457356</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>42.41280490404814</v>
+        <v>41.40943268154243</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>52.71401944910514</v>
+        <v>52.54641940353989</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>71.87797047930835</v>
+        <v>70.31451315465553</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>11.72834766636434</v>
+        <v>12.35606935410773</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>56.19415592441029</v>
+        <v>55.26366856929795</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>15.40347925296771</v>
+        <v>15.38253689623746</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>35.34332977782697</v>
+        <v>35.97077159256857</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>45.97878572061386</v>
+        <v>45.58564274418263</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>6.462671853113271</v>
+        <v>6.232938610625265</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>37.24264130655617</v>
+        <v>38.04040503989695</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>49.08344261201428</v>
+        <v>48.41753855145305</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>5.282734014297208</v>
+        <v>5.906820134227257</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>60.28715263684256</v>
+        <v>59.28324783782573</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>78.90929908278346</v>
+        <v>77.91023822199878</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>66.49897328111955</v>
+        <v>65.74935284611071</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>77.10392995369341</v>
+        <v>77.67209840585568</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>93.30460524027046</v>
+        <v>92.21690831656031</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>14.53663805702036</v>
+        <v>14.53448133877199</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>66.47477889329836</v>
+        <v>64.95029466345808</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>75.55317540106967</v>
+        <v>74.94005346597788</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>60.89339178854742</v>
+        <v>59.13646172475106</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>27.49008595245524</v>
+        <v>26.77061578115476</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>34.40293481608438</v>
+        <v>34.54192900165278</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>51.82947332779152</v>
+        <v>50.71901296627422</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>10.11351573760475</v>
+        <v>9.371698043055265</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>47.59560516153871</v>
+        <v>45.26511397298503</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>57.83853131737125</v>
+        <v>56.14524498173603</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>11.18708929997668</v>
+        <v>12.68191861153157</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>34.0903089816977</v>
+        <v>34.23845808362776</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>49.19130055531311</v>
+        <v>48.59284985545196</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>9.05300959916239</v>
+        <v>8.309184623008743</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>38.33574130273653</v>
+        <v>36.69076258965936</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>52.47304414623812</v>
+        <v>50.84702293639997</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>2.765408690736507</v>
+        <v>3.192311161856558</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>52.51681224185977</v>
+        <v>51.42425818563625</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>77.31315220477093</v>
+        <v>76.05862817819359</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>55.9243778580457</v>
+        <v>56.5252328828132</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>70.05002215077513</v>
+        <v>68.60116173189404</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>92.19812956317509</v>
+        <v>90.24206015458108</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>13.06882088295831</v>
+        <v>12.17021092342583</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>63.91581512532015</v>
+        <v>61.72118305061889</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>78.70147833241003</v>
+        <v>76.64712921856717</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>15.68935807393493</v>
+        <v>15.39374803595923</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>33.70550044873593</v>
+        <v>28.93979974663386</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>46.51840520449308</v>
+        <v>40.64408211547682</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>2.101563146700631</v>
+        <v>3.140451202991844</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>40.90065495211411</v>
+        <v>34.33539509149544</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>46.9167528509691</v>
+        <v>40.04519210712431</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>6.074890321710509</v>
+        <v>6.983028612958709</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>79.09454756839494</v>
+        <v>66.70427811521512</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>78.50653757281881</v>
+        <v>66.95178269332273</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>37.23541258296554</v>
+        <v>32.45583028658726</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>42.79663005260245</v>
+        <v>37.68419616942763</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>43.78485998010495</v>
+        <v>36.18797044816307</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>17.93559107721328</v>
+        <v>17.92358045817535</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>35.05821668227473</v>
+        <v>31.54424170484893</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>61.92096908987814</v>
+        <v>54.99280152245699</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>16.80494146104404</v>
+        <v>16.35034455129162</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>32.59724981488925</v>
+        <v>31.91636059703201</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>38.20372514568008</v>
+        <v>37.6529675869288</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>-2.095358545685283</v>
+        <v>-0.6984831227272537</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>17.61160913494442</v>
+        <v>16.71279197419273</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>18.7977657713474</v>
+        <v>19.57500546271674</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>-1.098507664283076</v>
+        <v>0.523002790509814</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>37.64037534938959</v>
+        <v>35.0853244723604</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>33.99384292957939</v>
+        <v>30.59710723537915</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>56.88026727290226</v>
+        <v>49.15588791534072</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>56.41311141666816</v>
+        <v>48.97833098868568</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>8.260969230638775</v>
+        <v>7.913721533254719</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>61.15804980250994</v>
+        <v>53.12885545183225</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>58.71768065026582</v>
+        <v>51.77941306684741</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>10.16314237823475</v>
+        <v>10.0654538257481</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>88.32765523037547</v>
+        <v>75.43096674724841</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>81.88903702219901</v>
+        <v>71.01659093658678</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>76.14341790615821</v>
+        <v>64.75306322418756</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>85.94053161332801</v>
+        <v>74.20207307206383</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>81.28137952755881</v>
+        <v>71.1975277029033</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>29.39064837468899</v>
+        <v>30.45803907075493</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>61.76522618132564</v>
+        <v>59.91786076540744</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>73.96192320577174</v>
+        <v>65.960594464515</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>27.34068972599756</v>
+        <v>25.51805596287142</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>48.42316487647045</v>
+        <v>45.59961671600634</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>46.3986478698254</v>
+        <v>45.10359883422859</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>3.687321565905112</v>
+        <v>4.586519891955817</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>41.7531445502866</v>
+        <v>39.08201037799586</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>42.28301859757723</v>
+        <v>42.47376602842086</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>6.570885565766076</v>
+        <v>6.398119077431659</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>68.71113306638557</v>
+        <v>64.24606185443807</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>10.86621291449402</v>
+        <v>9.408764414014229</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>40.95187326523717</v>
+        <v>34.49949271100799</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>43.83661580886377</v>
+        <v>37.5954134480476</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>4.174064111857973</v>
+        <v>4.191735231368465</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>58.62685269839986</v>
+        <v>49.958207719981</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>56.30480459641782</v>
+        <v>48.68810933532631</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>7.545531498842305</v>
+        <v>8.297881838152946</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>86.08267786904239</v>
+        <v>73.79498825913501</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>82.77557109415199</v>
+        <v>71.47474691619961</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>89.13865548123124</v>
+        <v>77.2287274556204</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>98.74794277091152</v>
+        <v>85.73877963930907</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>92.63741737380342</v>
+        <v>80.85567732571373</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>7.316673555911304</v>
+        <v>5.510571137019767</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>44.75582631028891</v>
+        <v>39.23291830294508</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>57.78207494287826</v>
+        <v>49.90242566152417</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>17.88442427816801</v>
+        <v>17.84710577792296</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>42.69174172085205</v>
+        <v>41.97962041088873</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>42.47375463652043</v>
+        <v>42.57014049139362</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>2.564543738757216</v>
+        <v>4.073119832280575</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>37.34243186903634</v>
+        <v>35.26039679078973</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>43.00601094505441</v>
+        <v>42.40748494009332</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>5.222832322566155</v>
+        <v>6.584343041005035</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>62.3840868843111</v>
+        <v>59.56591194365357</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>6.711206723613902</v>
+        <v>7.231366343037177</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>35.05176124686807</v>
+        <v>29.16833575801548</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>45.07068998267111</v>
+        <v>39.35797157535254</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>7.576926633523922</v>
+        <v>6.789650456818819</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>57.46089519803164</v>
+        <v>47.38505790636124</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>64.9812813336618</v>
+        <v>56.10654831662417</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>7.774912726497622</v>
+        <v>6.901623373696331</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>90.27074707815299</v>
+        <v>75.30129139981632</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>90.25994747157736</v>
+        <v>77.05143731129985</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>84.755408475905</v>
+        <v>72.00382164175025</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>93.07994456286545</v>
+        <v>79.23043928115463</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>94.49146670026009</v>
+        <v>82.05989532300701</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>7.25337967047351</v>
+        <v>6.63445096058852</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>42.73850795074512</v>
+        <v>36.59961428525013</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>63.86396937315361</v>
+        <v>54.20282193380301</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>12.53307461587183</v>
+        <v>14.07569745797768</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>37.94746318085744</v>
+        <v>36.93388756826261</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>43.28281932014644</v>
+        <v>43.03892572243292</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>3.333451595232891</v>
+        <v>4.744878591217546</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>37.0394793508163</v>
+        <v>34.47394501126789</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>45.98112450672315</v>
+        <v>45.00063301033812</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>4.529073204033207</v>
+        <v>5.991509887846927</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>58.12048725758936</v>
+        <v>54.28459501189408</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>40.30949757567576</v>
+        <v>38.18114674840044</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>33.39194134157575</v>
+        <v>32.01142538111696</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>48.77639319227279</v>
+        <v>46.88223242293338</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>50.4510206955717</v>
+        <v>48.35930781705494</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>14.68202528462541</v>
+        <v>11.94387803736901</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>33.33868960298069</v>
+        <v>31.68222639175208</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>43.78221014740433</v>
+        <v>40.56271960005446</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>16.16539581535225</v>
+        <v>15.73252635805678</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>32.31419051731302</v>
+        <v>31.69798428364602</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>43.61194444809557</v>
+        <v>41.1627767219987</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>-0.0173840429708001</v>
+        <v>0.5083589589920869</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>20.4217498672369</v>
+        <v>18.19400783464134</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>29.11889691477759</v>
+        <v>26.23393153648994</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>4.64995905394316</v>
+        <v>4.291438027598762</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>45.6587056339694</v>
+        <v>41.39671306635904</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>65.45215654625932</v>
+        <v>59.05291902619513</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>41.99850302539257</v>
+        <v>39.26802854058457</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>58.84287965716838</v>
+        <v>57.43093279133755</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>66.92077506636919</v>
+        <v>62.6950101623919</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>14.25506227090144</v>
+        <v>11.41663167795321</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>35.77123315178703</v>
+        <v>34.20376756865709</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>53.18161283345902</v>
+        <v>48.29378526307519</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>71.78864325309013</v>
+        <v>68.26970047522663</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>67.01156488792219</v>
+        <v>62.61409963373862</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>78.57305623818077</v>
+        <v>74.24334468532784</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>76.41839760699672</v>
+        <v>72.80489250881953</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>26.80392804008213</v>
+        <v>24.80609810500201</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>74.179682342372</v>
+        <v>70.7102968818527</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>73.29647443146466</v>
+        <v>70.32941755799837</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>28.21779440911856</v>
+        <v>26.99478689995552</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>50.21313914178303</v>
+        <v>48.32935978698733</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>48.99439834066313</v>
+        <v>48.41177463289374</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>3.332436939923522</v>
+        <v>4.921280368186551</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>47.57723724448658</v>
+        <v>44.90179106421883</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>48.01696539939731</v>
+        <v>48.00689162434513</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>6.385133201524614</v>
+        <v>7.608182086093503</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>78.91942767265324</v>
+        <v>74.73621859322422</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>80.77463112315498</v>
+        <v>78.43015444543251</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>84.95322299627827</v>
+        <v>80.50377557809294</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>92.33423389849027</v>
+        <v>90.20694032455771</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>90.78302346532669</v>
+        <v>88.87842056132594</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>27.76237067080522</v>
+        <v>27.57068853888886</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>85.33378682044487</v>
+        <v>83.26229003871376</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>85.41643779481807</v>
+        <v>83.23749416487604</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>74.09087857895682</v>
+        <v>71.0761440207847</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>64.25451993051976</v>
+        <v>59.92687817829741</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>75.81548660144493</v>
+        <v>70.95114089558685</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>79.80955376774415</v>
+        <v>75.6140302349517</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>14.89242941233202</v>
+        <v>14.54418708711834</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>69.22031008253782</v>
+        <v>66.90568834993775</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>70.62879660309162</v>
+        <v>68.25267104493334</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>16.35116234807165</v>
+        <v>16.03066643326501</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>43.17272131053856</v>
+        <v>41.93331576499406</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>44.3163925030224</v>
+        <v>44.57571095039661</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>-0.09492150803576394</v>
+        <v>2.073373662072701</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>46.87716133088733</v>
+        <v>44.15782869900421</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>47.79895976815358</v>
+        <v>47.48280940828877</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>2.045216143574688</v>
+        <v>4.039459937422304</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>75.55661960911003</v>
+        <v>71.18041787495156</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>82.27755649471854</v>
+        <v>79.58677000605678</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>85.09933721483723</v>
+        <v>81.0166762363305</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>93.11468455147573</v>
+        <v>90.26191753128035</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>96.28442964707129</v>
+        <v>93.55759485261673</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>11.00173705308221</v>
+        <v>12.01667557680434</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>78.67366224707909</v>
+        <v>76.76528504057065</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>80.80270434306233</v>
+        <v>79.20432881094429</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>72.41517504737224</v>
+        <v>68.56031344955838</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>47.38012723191582</v>
+        <v>43.78476518130297</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>61.01507518823799</v>
+        <v>56.44217936255404</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>65.51629417076843</v>
+        <v>62.37855907879042</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>13.47889194413313</v>
+        <v>13.48356711434842</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>63.59762940443427</v>
+        <v>59.07365868723724</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>72.47584265793371</v>
+        <v>68.17875512871268</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>7.966082375941443</v>
+        <v>11.80225196949448</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>38.62465321131459</v>
+        <v>38.95332514261224</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>45.87127337596357</v>
+        <v>47.10801637831209</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>-0.6370634625776397</v>
+        <v>2.551946772144266</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>43.60901833738522</v>
+        <v>41.12990261760012</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>50.56588918336386</v>
+        <v>49.95444275361076</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>-1.419961789841132</v>
+        <v>1.943185873893846</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>68.79597500474652</v>
+        <v>65.37247795346963</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>83.47237591765931</v>
+        <v>81.0511121613813</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>75.02026527895401</v>
+        <v>71.23565445532121</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>86.29871264008379</v>
+        <v>83.25851170363035</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>95.74391569480356</v>
+        <v>92.77688482643958</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>8.571606735293987</v>
+        <v>10.42576018595978</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>74.46601159749585</v>
+        <v>73.15202995735564</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>85.01992809194425</v>
+        <v>82.19844455777779</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>15.25199361913083</v>
+        <v>14.99455977786948</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>12.22853362266986</v>
+        <v>12.72461781447724</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>22.54708692110759</v>
+        <v>23.17581290614299</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>2.55687036533104</v>
+        <v>2.917562668661525</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>12.30482217356467</v>
+        <v>14.45874930873685</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>15.0942396691474</v>
+        <v>16.82787222316346</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>6.978941763742831</v>
+        <v>7.590945473011697</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>27.9836360854355</v>
+        <v>30.00003409962314</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>28.12845912483357</v>
+        <v>29.84977228782592</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>11.59220185336616</v>
+        <v>12.17764594094057</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>15.60287850132159</v>
+        <v>15.91745358283816</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>17.44679353080942</v>
+        <v>17.25103837009709</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>23.18296471814297</v>
+        <v>23.51780668505817</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>20.09864070906776</v>
+        <v>20.31395625049032</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>33.16894128795032</v>
+        <v>34.86547680208903</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>11.6499082123129</v>
+        <v>11.53959288425379</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>19.60832029518676</v>
+        <v>20.40519828795497</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>31.66505008112961</v>
+        <v>31.59425296155724</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>0.9617865069805838</v>
+        <v>1.718591998114345</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>6.331496710026521</v>
+        <v>7.899989355862804</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>9.534360871540752</v>
+        <v>10.94849685918311</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>-1.548048325001847</v>
+        <v>-0.5359715591776748</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>12.56261343063633</v>
+        <v>14.6108904993125</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>20.43678367166374</v>
+        <v>20.03268210503074</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>22.99126165598934</v>
+        <v>23.12014005828356</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>23.82570583860293</v>
+        <v>24.42439158472762</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>0.8894773805301135</v>
+        <v>1.12830538055379</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>25.10609385717047</v>
+        <v>27.04753664564973</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>24.54398335800448</v>
+        <v>26.38733313471567</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>4.910354562452913</v>
+        <v>5.249036986437144</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>32.94783891824499</v>
+        <v>34.3322337139347</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>32.41436887873782</v>
+        <v>34.08966502491012</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>37.34703697663326</v>
+        <v>38.11200111162158</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>42.74111467392078</v>
+        <v>43.9906422808757</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>44.4886615681019</v>
+        <v>45.96172871541464</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>29.83890528262356</v>
+        <v>31.56698050019882</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>47.09375489192971</v>
+        <v>48.68234272503032</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>49.07728223475429</v>
+        <v>48.52943645674688</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>15.71478964631437</v>
+        <v>16.29384376197207</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>30.75209630553243</v>
+        <v>31.10454850137829</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>38.07305297863674</v>
+        <v>37.7091432350102</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>4.036068978028784</v>
+        <v>5.386740004188862</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>29.73358366511603</v>
+        <v>30.27060016726301</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>39.62831088314147</v>
+        <v>40.48252067678777</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>5.506622389944699</v>
+        <v>5.162766272604884</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>47.2525568785184</v>
+        <v>48.67661570251602</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>5.56758949576739</v>
+        <v>6.111280463969244</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>16.05898669062167</v>
+        <v>16.81245370131482</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>20.68391408681468</v>
+        <v>20.92448139495539</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>-0.1701097586645943</v>
+        <v>0.03306546131301502</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>24.8949694143515</v>
+        <v>27.17052737874773</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>27.00407504667396</v>
+        <v>27.88374547257173</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>6.064356402875777</v>
+        <v>7.59205880672922</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>36.03296247681121</v>
+        <v>39.49858388546361</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>40.92228609199524</v>
+        <v>42.53328449123977</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>42.80075488580435</v>
+        <v>44.0065395085516</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>44.99636802180791</v>
+        <v>46.28387270051782</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>50.53394675724539</v>
+        <v>51.26764981009251</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>15.1283320120097</v>
+        <v>14.1811803476947</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>34.4384396784946</v>
+        <v>33.57494528796107</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>39.95195278948569</v>
+        <v>40.8163602959078</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>7.565874966093869</v>
+        <v>9.064200086100705</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>24.87108565113519</v>
+        <v>26.3294325404386</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>35.09801555288891</v>
+        <v>35.1926099194512</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>-0.0529967875608115</v>
+        <v>1.036441454104935</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>17.7385714654453</v>
+        <v>19.4477506853709</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>37.74968319386441</v>
+        <v>36.83731875161073</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>0.6612757852588693</v>
+        <v>1.609324061735272</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>33.94104629997991</v>
+        <v>34.92031765065131</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>4.279567626024487</v>
+        <v>4.629067927666597</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>10.29561906586313</v>
+        <v>11.2713400169835</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>20.21345338969168</v>
+        <v>21.23739349443452</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>-0.4040117664402132</v>
+        <v>0.2024052574883335</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>17.50582456496891</v>
+        <v>19.88827954775788</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>27.91791333653226</v>
+        <v>30.18644104713718</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>1.161389023754158</v>
+        <v>1.668326579460537</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>31.67517469151692</v>
+        <v>35.00022506617132</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>38.87943553488338</v>
+        <v>41.42554892515369</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>34.27520073179447</v>
+        <v>36.3229347362056</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>36.90513327483981</v>
+        <v>38.63207918812525</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>41.66781597971853</v>
+        <v>43.96291645935521</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>14.28262187638211</v>
+        <v>13.38306067901061</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>27.05454048423989</v>
+        <v>28.00661258631251</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>40.96935713290048</v>
+        <v>41.12639830479857</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>5.592632976152121</v>
+        <v>6.800675297325494</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>21.57077754416211</v>
+        <v>22.55422288657368</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>35.4938418685752</v>
+        <v>35.46709999641082</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>2.289790436354888</v>
+        <v>2.696346375112665</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>17.61177416050892</v>
+        <v>19.43342113447276</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>37.59295037019625</v>
+        <v>37.8298204877186</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>0.7501104225134796</v>
+        <v>1.224839883358975</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>28.93150556227053</v>
+        <v>30.72148619398377</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>18.78927075634952</v>
+        <v>19.98442995858635</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>19.2043313490609</v>
+        <v>18.98926790706899</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>35.52750858123691</v>
+        <v>34.97171145575454</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>40.46903891075535</v>
+        <v>39.8852454645592</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>2.254933242288569</v>
+        <v>3.137092079369992</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>10.40645590736141</v>
+        <v>12.00220104604727</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>20.21021978522206</v>
+        <v>21.02048267460908</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>10.84742868572025</v>
+        <v>10.8336226684058</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>19.0937548334054</v>
+        <v>19.92147461690798</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>29.68027549091165</v>
+        <v>29.69355549173036</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>-1.600521196472425</v>
+        <v>-0.4684132999813961</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>4.578219843253837</v>
+        <v>6.989827742314091</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>10.70549410194764</v>
+        <v>11.3557542106727</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>-0.01469952526375096</v>
+        <v>-0.1731693673135197</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>15.19055154265919</v>
+        <v>16.11914033462531</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>28.39023562322556</v>
+        <v>27.88439806672446</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>18.42495935250366</v>
+        <v>19.54084409831679</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>39.26501734097874</v>
+        <v>40.02868976941721</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>46.27645769424458</v>
+        <v>47.25725636291675</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>3.044797423493186</v>
+        <v>3.948336032517805</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>15.34721968513665</v>
+        <v>16.21643762580637</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>22.67033107050523</v>
+        <v>23.56354873349848</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>61.48083804602254</v>
+        <v>60.53342160821218</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>49.37901416400125</v>
+        <v>49.42839588321887</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>63.5654479317876</v>
+        <v>63.82309806431022</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>69.81434613952153</v>
+        <v>67.99504896649282</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>15.16479158555395</v>
+        <v>16.19758579226246</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>59.74909462192251</v>
+        <v>58.6603645674824</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>63.73764523599404</v>
+        <v>62.76368765888348</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>24.34208692890042</v>
+        <v>24.30024863852572</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>39.28018363747766</v>
+        <v>39.68757905266215</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>45.6700639788322</v>
+        <v>45.66501012974787</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>6.443787564446094</v>
+        <v>7.207022005340324</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>35.59488931688148</v>
+        <v>35.58771677786351</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>45.15671563233202</v>
+        <v>45.4164599493714</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>11.18200289806643</v>
+        <v>10.79081489809077</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>61.74382058285701</v>
+        <v>61.85211055902992</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>70.00313176342122</v>
+        <v>70.38456122595363</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>74.09012046712964</v>
+        <v>72.48843327842839</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>83.36362585412249</v>
+        <v>82.98004755776716</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>88.66673534094824</v>
+        <v>88.00963106254282</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>29.01480582729973</v>
+        <v>28.62251801150846</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>77.74664767704577</v>
+        <v>76.61171020973038</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>80.8526146253464</v>
+        <v>80.22455001335094</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>62.25234574132853</v>
+        <v>61.61197448442262</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>34.07520681627057</v>
+        <v>35.27274431707465</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>46.05988138111298</v>
+        <v>46.87367942352005</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>66.42162262386006</v>
+        <v>65.43319306063334</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>4.702709531244526</v>
+        <v>7.649456001812236</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>48.4720964238102</v>
+        <v>48.79694949478638</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>59.2110668827202</v>
+        <v>58.7595617031411</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>14.07013394792689</v>
+        <v>14.30593334017464</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>32.43483756426713</v>
+        <v>33.56430223351563</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>43.6658014832617</v>
+        <v>43.55589209234757</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>1.320334293273945</v>
+        <v>2.792521297132964</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>30.36583043051713</v>
+        <v>33.03563792203945</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>44.75158621716369</v>
+        <v>45.15660075965167</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>5.260797192874161</v>
+        <v>5.614344131939507</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>54.7408964465325</v>
+        <v>55.02335624912462</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>73.89260498744116</v>
+        <v>73.72313604132056</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>62.64656808870427</v>
+        <v>62.81648633303483</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>72.23831248913558</v>
+        <v>73.19549458329655</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>89.65689291260564</v>
+        <v>89.10824220950144</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>14.22273131182623</v>
+        <v>14.94796482516353</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>64.04908157876616</v>
+        <v>63.25216376823828</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>75.12444427883037</v>
+        <v>74.75036651917593</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>56.03838493285153</v>
+        <v>55.47287873232109</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>20.1327808925185</v>
+        <v>21.54986384674969</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>27.10652129338864</v>
+        <v>28.88737726861467</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>45.84631314400107</v>
+        <v>45.54679522504777</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>4.158218910789763</v>
+        <v>5.328910159528231</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>37.26254124158579</v>
+        <v>36.87260337849413</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>51.86362549369083</v>
+        <v>51.33523028751113</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>10.31058217140454</v>
+        <v>11.61191652969622</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>31.64766236365312</v>
+        <v>32.15824216576394</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>45.78521035075431</v>
+        <v>45.81827176577831</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>2.865383508538361</v>
+        <v>4.050527301782228</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>29.56472932555432</v>
+        <v>30.66272444079496</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>45.46965096436428</v>
+        <v>45.75394132611544</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>2.300521897937262</v>
+        <v>2.688871795416631</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>46.53442175589801</v>
+        <v>47.24564098485763</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>70.59788386815947</v>
+        <v>71.12180571457765</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>49.57868972114328</v>
+        <v>51.38645488547671</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>61.61593265242422</v>
+        <v>62.26001105728028</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>84.63971828632751</v>
+        <v>84.2987790657032</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>11.32329452569463</v>
+        <v>11.60285294041092</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>59.07967550619441</v>
+        <v>58.36609474678005</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>73.50752519547028</v>
+        <v>73.31259398631919</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>14.57089789213658</v>
+        <v>14.93709438450189</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>11.85381095474987</v>
+        <v>13.01880810850866</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>19.75485264702626</v>
+        <v>21.69795430610893</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>2.82976978796394</v>
+        <v>3.996749460860695</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>8.644710472672998</v>
+        <v>12.62710459059763</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>10.97518412924485</v>
+        <v>14.67994066619017</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>6.294941237453127</v>
+        <v>7.975098689502826</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>21.51754278754682</v>
+        <v>25.97805591842389</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>22.08859360041018</v>
+        <v>26.13384612834133</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>9.367938743310994</v>
+        <v>11.78830282238961</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>13.92974047544908</v>
+        <v>15.70020009839019</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>15.79160689330028</v>
+        <v>17.42024721469414</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>15.99564559308284</v>
+        <v>17.62771350656033</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>12.33701200831864</v>
+        <v>14.60082049117754</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>19.36245238270011</v>
+        <v>24.41664793670422</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>12.65049326685567</v>
+        <v>12.91284965933511</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>22.50972145746206</v>
+        <v>22.60432791934243</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>33.09628965897368</v>
+        <v>32.14641623636409</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>1.502261798352613</v>
+        <v>2.907249140399657</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>7.704684756522706</v>
+        <v>9.76755938077979</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>11.84658672142902</v>
+        <v>12.97674700784609</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>0.5461375971730753</v>
+        <v>1.986508244754962</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>16.26795639944655</v>
+        <v>17.87548679967596</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>18.81561106226406</v>
+        <v>19.27383412072532</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>21.60414239364429</v>
+        <v>22.62672672186444</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>21.10454987706665</v>
+        <v>23.11789488769541</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>1.142763270249265</v>
+        <v>2.320686873784329</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>20.47817254790808</v>
+        <v>24.20241405642414</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>19.92961497019427</v>
+        <v>23.61577186519558</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>4.606063171712162</v>
+        <v>5.904718230629395</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>27.29793748550334</v>
+        <v>31.08879348546606</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>26.72294502630718</v>
+        <v>30.51963937512449</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>30.54415494585461</v>
+        <v>33.27084506412876</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>37.15938369150707</v>
+        <v>39.76633440776882</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>37.91816344170458</v>
+        <v>41.01341155458983</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>20.33395745068774</v>
+        <v>22.87451830524746</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>34.34242967504396</v>
+        <v>37.70382931603694</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>33.33433859267736</v>
+        <v>36.58912763134393</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>16.37243907214494</v>
+        <v>17.44753685164312</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>33.15070415863901</v>
+        <v>32.89993468477886</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>39.60213298737514</v>
+        <v>38.33887435728706</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>4.706670013996415</v>
+        <v>6.786478350571198</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>29.69964365836454</v>
+        <v>30.73055707727111</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>39.62557929550938</v>
+        <v>39.78228843368028</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>7.12327730126729</v>
+        <v>7.567596676285532</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>48.24337946768919</v>
+        <v>49.17363578777393</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>4.65423931073861</v>
+        <v>6.27362520443786</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>13.45225273288596</v>
+        <v>15.43084567093354</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>17.05608450624128</v>
+        <v>19.04604757452015</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>-0.4657869495666347</v>
+        <v>1.176213641627346</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>19.12620911114252</v>
+        <v>23.44472319950638</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>21.22587680667383</v>
+        <v>24.33821810373851</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>4.979203057002895</v>
+        <v>7.550339103534313</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>27.95890753001396</v>
+        <v>33.55167869386058</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>32.97618139373036</v>
+        <v>36.80676383314479</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>34.77115897316813</v>
+        <v>38.37013950841735</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>38.67552010391165</v>
+        <v>41.86446719572873</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>42.54317481684932</v>
+        <v>45.43619017752278</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>6.78809242726377</v>
+        <v>8.995983612297316</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>21.66148250989458</v>
+        <v>23.93178980684308</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>24.42162028890328</v>
+        <v>29.68189611857387</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>7.90707603064185</v>
+        <v>9.751841299012487</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>25.61223759089858</v>
+        <v>26.48535008318394</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>35.84152239235267</v>
+        <v>34.89273923495488</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>0.2854020489703863</v>
+        <v>2.198358098377664</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>18.05261381753282</v>
+        <v>20.05898505092349</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>37.3704810091691</v>
+        <v>35.83096264429432</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>1.95076107241481</v>
+        <v>3.198564457343618</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>33.77336511474174</v>
+        <v>33.97507769761388</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>3.693905132815299</v>
+        <v>4.870773708459463</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>8.286530096930434</v>
+        <v>10.40517276058645</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>16.46231799514696</v>
+        <v>19.1290833360051</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>-0.6962870585153773</v>
+        <v>1.043472844656666</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>12.12476205699284</v>
+        <v>16.69042555902719</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>21.67054007023593</v>
+        <v>26.11741803654929</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>0.907154471290351</v>
+        <v>2.449407146358606</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>23.9180895873026</v>
+        <v>29.6218878006475</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>31.14363681480738</v>
+        <v>35.90870524644227</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>26.36492456613571</v>
+        <v>31.08514619563234</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>30.24782531380509</v>
+        <v>34.18065245278487</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>34.41130031441595</v>
+        <v>38.61049140971764</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>7.088229813917771</v>
+        <v>8.769225926087916</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>16.95166603851335</v>
+        <v>20.48881816711647</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>24.3116879148245</v>
+        <v>29.6573643346646</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>7.004281124808831</v>
+        <v>8.446960841730174</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>23.10697990172052</v>
+        <v>23.73683098810462</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>36.66694232972846</v>
+        <v>35.60858851179765</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>2.857283371854329</v>
+        <v>3.897291612116145</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>17.92960733963722</v>
+        <v>20.12818772852279</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>37.22272326530511</v>
+        <v>36.7412654474818</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>3.167221601887434</v>
+        <v>3.665404967130808</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>29.98022228674141</v>
+        <v>31.22172188544831</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>23.01439588891003</v>
+        <v>23.6262963671353</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>22.48611547668529</v>
+        <v>22.00274920359119</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>38.20161444471916</v>
+        <v>36.33571416485808</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>44.56772280494383</v>
+        <v>42.18534499785736</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>3.470933466266363</v>
+        <v>5.149251779980709</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>15.91220783817834</v>
+        <v>16.10977040661483</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>24.62691094336824</v>
+        <v>24.41158655451706</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>10.58331439006097</v>
+        <v>11.40423161113797</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>21.06875579252923</v>
+        <v>21.40454556721538</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>30.33404821574377</v>
+        <v>30.33346453695395</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>-2.287998405840742</v>
+        <v>0.02042247782138062</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>4.437410758061365</v>
+        <v>7.682637978909529</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>10.99914352458118</v>
+        <v>12.53904982323323</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>0.568930391307358</v>
+        <v>1.52566378761523</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>17.56627568044028</v>
+        <v>18.71245002472735</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>28.45856468631748</v>
+        <v>28.7788832551016</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>21.4392602753328</v>
+        <v>22.15045107270859</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>41.47058745932991</v>
+        <v>40.99982752235358</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>46.88574805756636</v>
+        <v>46.97388392884829</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>3.711500510507189</v>
+        <v>5.484536639901155</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>18.42858972530678</v>
+        <v>18.63559511466239</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>24.17491261612916</v>
+        <v>25.33901946739572</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>61.40320656909218</v>
+        <v>59.97242127365996</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>49.42957499133436</v>
+        <v>49.3482901652763</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>63.42874070689939</v>
+        <v>62.27177561790192</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>70.09483879962436</v>
+        <v>66.6596872900698</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>14.80001623264206</v>
+        <v>16.74993458516693</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>60.83652158759118</v>
+        <v>58.2303211462757</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>64.21482051433411</v>
+        <v>61.83716111650691</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>23.40636332139849</v>
+        <v>23.89858430106377</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>40.74700067546778</v>
+        <v>40.19725222734396</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>46.20678761739953</v>
+        <v>45.42363694919914</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>6.965780913118941</v>
+        <v>8.369005554282861</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>35.4965018163664</v>
+        <v>35.76411819494352</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>45.08754396187939</v>
+        <v>44.82205772289008</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>12.67669365625096</v>
+        <v>12.64955494716557</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>62.12262088158295</v>
+        <v>61.37707125846727</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>68.178468829834</v>
+        <v>67.80741958762398</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>71.80816569464696</v>
+        <v>69.57493130644581</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>82.80464887387352</v>
+        <v>80.62720050059845</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>85.51915528950109</v>
+        <v>83.61603861679181</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>28.43199888842842</v>
+        <v>28.3476351850278</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>77.7769333978553</v>
+        <v>74.78067568224417</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>79.80237539263537</v>
+        <v>77.63433026213457</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>60.94177162256949</v>
+        <v>59.40647745827805</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>35.14322356727269</v>
+        <v>35.81505671480944</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>47.76553095486865</v>
+        <v>47.01746931561974</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>66.78064113814233</v>
+        <v>63.86495514958271</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>4.733695486400176</v>
+        <v>8.575632061430969</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>49.81978641029728</v>
+        <v>48.74339098820417</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>60.1266323892377</v>
+        <v>58.10777531448167</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>13.46157182063796</v>
+        <v>14.45679096350673</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>33.23573602902832</v>
+        <v>33.70016593360963</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>43.86621389387926</v>
+        <v>43.11173977690803</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>2.128261982253132</v>
+        <v>4.260834528444331</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>30.55676934488928</v>
+        <v>33.01957396038506</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>44.82051234287802</v>
+        <v>44.41689928843789</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>7.033140709314193</v>
+        <v>7.646112195691178</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>54.43655654911066</v>
+        <v>53.89370951313825</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>71.3562945380079</v>
+        <v>70.41514314205989</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>61.85813810787153</v>
+        <v>61.1153108262952</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>73.05321444101263</v>
+        <v>71.83720611707783</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>86.65096325459029</v>
+        <v>84.83671224364205</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>14.81206319340835</v>
+        <v>15.99796854183206</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>65.83116409763059</v>
+        <v>63.39110884620986</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>75.39232044448963</v>
+        <v>73.37734448361087</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>56.55066479270808</v>
+        <v>54.93294762661905</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>22.5607791629136</v>
+        <v>23.67001952848027</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>31.72952021081545</v>
+        <v>31.8834373278716</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>49.00379445873317</v>
+        <v>46.81130165888823</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>5.580615905542903</v>
+        <v>7.306818890629199</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>40.13808571003186</v>
+        <v>38.28019283708841</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>53.86288535139069</v>
+        <v>52.09315893564974</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>11.27334575077853</v>
+        <v>12.83047097495966</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>33.40619725561421</v>
+        <v>33.09637933327868</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>46.43017054162517</v>
+        <v>45.62333378579496</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>4.206487674867443</v>
+        <v>5.694595019905268</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>30.1622278601448</v>
+        <v>31.19087579416988</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>45.39714364386411</v>
+        <v>45.02026748629362</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>5.68923396995557</v>
+        <v>5.909265421049991</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>48.57868096697017</v>
+        <v>48.37949670068733</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>69.5514163225845</v>
+        <v>69.07483695178962</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>51.45035126044446</v>
+        <v>51.68670206430181</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>64.82462214247846</v>
+        <v>63.18652243166754</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>83.30501723463071</v>
+        <v>81.2464874948698</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>13.56865402251624</v>
+        <v>13.90948516116286</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>62.42547162024647</v>
+        <v>59.7984936432197</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>73.51846340848483</v>
+        <v>72.16355326727071</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>13.59677027309747</v>
+        <v>12.77028452801337</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>18.90806475529695</v>
+        <v>18.02616671620166</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>31.08750313366992</v>
+        <v>30.11938350008829</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>-0.9234732650938327</v>
+        <v>-0.6900224039936056</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>12.19516464198064</v>
+        <v>12.31480211465334</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>18.97244807057433</v>
+        <v>18.90657947069802</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>1.661183554009465</v>
+        <v>2.472678824813226</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>40.04856181825249</v>
+        <v>39.10905654217207</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>41.90256955007249</v>
+        <v>40.63018842908439</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>22.34728303327784</v>
+        <v>21.41111786671964</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>24.9340855918021</v>
+        <v>23.81018451866336</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>26.43611302446521</v>
+        <v>25.11924582726475</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>9.356163605090888</v>
+        <v>10.13482430127178</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>20.65485059401592</v>
+        <v>20.62246887632739</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>34.89860282166511</v>
+        <v>34.7173359227871</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>13.54528727919141</v>
+        <v>12.25935230581578</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>26.59526472222811</v>
+        <v>26.10004921342495</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>32.6937029825788</v>
+        <v>32.48714127050388</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>0.7055231167029312</v>
+        <v>0.6534510277016317</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>11.97444631119724</v>
+        <v>11.98485045721843</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>9.969068122379472</v>
+        <v>11.5608488986171</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>-2.055731839515666</v>
+        <v>-0.858192736972196</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>24.43686921089727</v>
+        <v>24.18863552518931</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>23.89552437470291</v>
+        <v>23.04435920838495</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>37.04530282215027</v>
+        <v>35.51328523979528</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>38.79085246226146</v>
+        <v>37.49132966432366</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>4.481862343537681</v>
+        <v>4.071114157651497</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>36.8564875613117</v>
+        <v>35.79921685880716</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>38.21550594624566</v>
+        <v>37.04583750558333</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>6.157262782526971</v>
+        <v>6.004627508965292</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>54.43102489244324</v>
+        <v>52.26989047189257</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>53.47681500493718</v>
+        <v>51.64457479364154</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>56.08179904641362</v>
+        <v>53.25631200745392</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>61.43191044809768</v>
+        <v>58.65007429672612</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>61.35525023991312</v>
+        <v>59.59573287271212</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>20.38991617678157</v>
+        <v>21.39614267769435</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>56.67252925779021</v>
+        <v>56.16864533329106</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>60.78359931186471</v>
+        <v>58.61525506916276</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>18.60289006270994</v>
+        <v>17.84145041769635</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>39.37098954639879</v>
+        <v>38.24664647495011</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>39.53329217689451</v>
+        <v>39.31429804192829</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>4.65209217994666</v>
+        <v>5.016380143105788</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>37.8917030731719</v>
+        <v>36.55195103791858</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>38.36170056013621</v>
+        <v>38.81885543265525</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>4.891654182306834</v>
+        <v>4.894289847907384</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>58.81926707173065</v>
+        <v>57.49576390544865</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>6.568486850628421</v>
+        <v>6.647550824646018</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>25.31893838273222</v>
+        <v>24.69390203294268</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>31.90025890291896</v>
+        <v>30.38465191091093</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>1.929784463159656</v>
+        <v>1.799586255806826</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>33.81107931217549</v>
+        <v>32.86642100534429</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>38.35827188364951</v>
+        <v>36.25993083140222</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>6.549306592983456</v>
+        <v>7.423951859936228</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>53.40646130269381</v>
+        <v>52.45810808079561</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>58.08353650587169</v>
+        <v>55.57720930982633</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>61.22088834911003</v>
+        <v>59.14527046511714</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>64.1938642607755</v>
+        <v>61.96410213741549</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>67.02383531353209</v>
+        <v>64.49063045774859</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>4.036362513741825</v>
+        <v>3.826988320040044</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>40.06868692360285</v>
+        <v>38.61495934845953</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>47.24869615050395</v>
+        <v>45.72524456158577</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>11.70040786453432</v>
+        <v>11.63593480209791</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>33.19226120973598</v>
+        <v>33.87730976251723</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>37.31997296619047</v>
+        <v>37.66443990028183</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>3.505321926871968</v>
+        <v>3.767726373333598</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>29.4681108926197</v>
+        <v>29.37554755080008</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>38.88211700234933</v>
+        <v>38.22764072853958</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>4.222270203380855</v>
+        <v>5.012979871463241</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>48.05103222904286</v>
+        <v>47.34114205417472</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>4.460837476211523</v>
+        <v>4.364171576867154</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>17.89517093540663</v>
+        <v>17.46997634805111</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>32.24060756479081</v>
+        <v>30.73579747338996</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>-0.5245164526026507</v>
+        <v>-0.5808395771293924</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>18.62741154936767</v>
+        <v>18.28076829804814</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>39.10067843540971</v>
+        <v>37.90362600989145</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>0.4673502014207891</v>
+        <v>0.6434185190321742</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>46.51103037664576</v>
+        <v>45.8382846349764</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>56.42787700291171</v>
+        <v>54.45967896460932</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>51.0354075981048</v>
+        <v>49.31296922095775</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>55.12836769308424</v>
+        <v>53.17862685463172</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>61.66439362916407</v>
+        <v>59.76865217055988</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>3.345243264555823</v>
+        <v>3.133355539410417</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>32.44350334583379</v>
+        <v>31.66265298406027</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>49.09446106653512</v>
+        <v>46.47343403197797</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>6.42631574397047</v>
+        <v>6.536159748188044</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>25.51752024722966</v>
+        <v>25.76385697530453</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>35.5071391464012</v>
+        <v>35.43335240023234</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>0.484342786918166</v>
+        <v>0.2576199481822563</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>20.54996083528897</v>
+        <v>21.01139456782151</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>35.38373024302303</v>
+        <v>35.63582446318051</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>-0.9969545718228794</v>
+        <v>-0.3970258373471083</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>36.18193011724428</v>
+        <v>36.30116461763619</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>25.81035545730788</v>
+        <v>26.13329339601894</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>24.33059966330071</v>
+        <v>24.48696568064813</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>37.53834557003149</v>
+        <v>37.32638237349917</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>39.05768834154037</v>
+        <v>40.01172194370687</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>6.346552793905797</v>
+        <v>5.891818669174182</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>15.07155074038548</v>
+        <v>15.75505268223245</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>25.97863534336206</v>
+        <v>26.07851511578509</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>11.52322112293641</v>
+        <v>10.93874024431273</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>22.3845393207296</v>
+        <v>23.3035648919557</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>34.35455433669689</v>
+        <v>33.96185149492486</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>-1.751589764228477</v>
+        <v>-1.810859907519824</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>9.194291550532878</v>
+        <v>9.765227879971711</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>15.33852674515267</v>
+        <v>15.23578768325033</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>-0.1389170393325756</v>
+        <v>-0.5645772709180967</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>23.32098093450452</v>
+        <v>23.20447714587046</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>40.7240923706234</v>
+        <v>38.56763246438643</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>26.89417851966925</v>
+        <v>27.16219940182699</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>46.31992550007809</v>
+        <v>46.54218701479189</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>52.28686483803321</v>
+        <v>52.16429735502025</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>3.147017153771063</v>
+        <v>3.23307847852028</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>20.44598116985725</v>
+        <v>21.22349235179831</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>33.50647802462841</v>
+        <v>32.87828498071118</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>63.6748252875939</v>
+        <v>62.75319777361238</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>56.40296936752775</v>
+        <v>55.44414356554316</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>66.6911968930812</v>
+        <v>66.25905515231756</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>66.37152631618164</v>
+        <v>65.81294343573475</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>16.17059798246925</v>
+        <v>16.01733530814629</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>62.53385809543397</v>
+        <v>60.40866793657869</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>65.43623190606826</v>
+        <v>64.75107659119898</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>21.91097977955861</v>
+        <v>21.81415448156829</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>40.95700993131345</v>
+        <v>41.76304223630511</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>45.62232058324405</v>
+        <v>46.0317427599734</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>3.949242771647381</v>
+        <v>4.5712307631801</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>41.57101199348159</v>
+        <v>40.93959942702113</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>45.98725479811048</v>
+        <v>45.99155987617182</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>6.272204861009254</v>
+        <v>6.850259850819164</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>65.33718391102681</v>
+        <v>65.14731957962189</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>72.34192411071501</v>
+        <v>72.15023578545893</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>76.49453024653891</v>
+        <v>75.45271151967611</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>86.26781966960574</v>
+        <v>86.33023987551647</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>88.89739883485753</v>
+        <v>88.51230427717542</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>17.97756217597491</v>
+        <v>18.56753701842115</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>78.85017053832424</v>
+        <v>78.70575938970713</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>81.65424077551317</v>
+        <v>81.09521201932193</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>66.30399436736798</v>
+        <v>65.46896914046518</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>47.98899761903388</v>
+        <v>47.69973990138466</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>55.62757282846083</v>
+        <v>55.80458910553776</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>67.10742181075415</v>
+        <v>66.42398012869118</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>8.353817216346133</v>
+        <v>9.70317815247483</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>53.36273442658453</v>
+        <v>53.65543171703395</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>62.57031589243152</v>
+        <v>62.6783113476581</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>12.91813808841306</v>
+        <v>12.64618285547781</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>34.13901758696812</v>
+        <v>35.42720229329076</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>43.86717384801217</v>
+        <v>44.08436448783237</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>1.133741300171284</v>
+        <v>1.664641551790059</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>38.24723671306539</v>
+        <v>38.55749122685838</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>46.771050734962</v>
+        <v>46.16502936958339</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>3.716952432906474</v>
+        <v>4.099967714394797</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>60.12866325271351</v>
+        <v>59.35499325229642</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>76.93143970639096</v>
+        <v>75.74593088693371</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>70.05778590957327</v>
+        <v>69.64935797393032</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>78.36651427783592</v>
+        <v>78.73208617080634</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>92.94960471087653</v>
+        <v>91.85943745438419</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>7.058208957510939</v>
+        <v>7.740084040034976</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>68.32485313709694</v>
+        <v>68.63372026050746</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>77.45898575099341</v>
+        <v>76.79673924796731</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>56.84492083767869</v>
+        <v>55.87098687822404</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>26.21548100280685</v>
+        <v>26.1951779936822</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>34.30858858522189</v>
+        <v>34.80394983581039</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>45.50369596918</v>
+        <v>45.59889683895145</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>3.29368417218247</v>
+        <v>3.522761734789125</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>30.85820100373293</v>
+        <v>26.95832195721836</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>54.09505200244956</v>
+        <v>53.80469379395335</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>7.146059968845218</v>
+        <v>8.913613140288764</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>30.05994581980182</v>
+        <v>31.85323667745324</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>45.00182135427306</v>
+        <v>45.67980297506357</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>-0.628232834875277</v>
+        <v>0.2867503630165977</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>30.40423678702012</v>
+        <v>31.06287131207411</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>45.55267815947812</v>
+        <v>45.59262675949387</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>-1.274408593688985</v>
+        <v>-0.3964674405718291</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>49.03079733746549</v>
+        <v>49.52683844974779</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>73.12953987079443</v>
+        <v>72.7796352063084</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>54.68228893481225</v>
+        <v>55.37962004720612</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>67.90346248092501</v>
+        <v>68.43057917249622</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>87.70627503861448</v>
+        <v>87.03919774095145</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>4.653594764503975</v>
+        <v>5.320833176778617</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>58.63977252393128</v>
+        <v>59.58048925437835</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>77.43953105128909</v>
+        <v>77.05454149049929</v>
       </c>
     </row>
   </sheetData>
